--- a/artfynd/A 59975-2020.xlsx
+++ b/artfynd/A 59975-2020.xlsx
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>485109.2451153756</v>
+        <v>485109</v>
       </c>
       <c r="R4" t="n">
-        <v>6406775.942950496</v>
+        <v>6406776</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,19 +986,9 @@
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-05-17</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
